--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almboe\Desktop\pythonping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EAC93C-CEBB-4BB8-BCB5-F0CFE0682FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F9CD2-15BB-4B11-B893-C9DC1F8416F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2265" windowWidth="20490" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1035" windowWidth="20490" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -26,41 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
-  <si>
-    <t>192.168.31.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.31.1</t>
-  </si>
-  <si>
-    <t>192.168.31.2</t>
-  </si>
-  <si>
-    <t>192.168.31.3</t>
-  </si>
-  <si>
-    <t>192.168.31.4</t>
-  </si>
-  <si>
-    <t>192.168.31.5</t>
-  </si>
-  <si>
-    <t>192.168.31.6</t>
-  </si>
-  <si>
-    <t>192.168.31.7</t>
-  </si>
-  <si>
-    <t>192.168.31.8</t>
-  </si>
-  <si>
-    <t>192.168.31.9</t>
-  </si>
-  <si>
-    <t>192.168.31.10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.31.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,15 +95,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>秒(毫秒請自行用小數)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-99999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>all_run_times(整體重覆執行多少次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_workers_Multithreading(使用多少個線程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-99999(預設5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒(毫秒請自行用小數)(預設5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-99999(預設1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.31.219</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,113 +461,124 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,120 +591,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
